--- a/admin/assets/file/export/products.xlsx
+++ b/admin/assets/file/export/products.xlsx
@@ -15,168 +15,489 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>UPC</t>
-  </si>
-  <si>
-    <t>ASIN</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>CA-LIZ-A1281</t>
-  </si>
-  <si>
-    <t>X000Y005XJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA-LIZ-A1281 </t>
-  </si>
-  <si>
-    <t>RC-06</t>
-  </si>
-  <si>
-    <t>6921760704899</t>
-  </si>
-  <si>
-    <t>CA-EXA-85W-MAG1-FBA</t>
-  </si>
-  <si>
-    <t>X0016B6TV7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA-EXA-85W-MAG1-FBA </t>
-  </si>
-  <si>
-    <t>RC-11</t>
-  </si>
-  <si>
-    <t>X00169XD95</t>
-  </si>
-  <si>
-    <t>RC-12</t>
-  </si>
-  <si>
-    <t>X00169OB87</t>
-  </si>
-  <si>
-    <t>RC-16</t>
-  </si>
-  <si>
-    <t>X001CPMDPX</t>
-  </si>
-  <si>
-    <t>RC-17</t>
-  </si>
-  <si>
-    <t>X001CQE0FD</t>
-  </si>
-  <si>
-    <t>RC-18</t>
-  </si>
-  <si>
-    <t>X001CQE0FX</t>
-  </si>
-  <si>
-    <t>RC-19</t>
-  </si>
-  <si>
-    <t>X001CNW52B</t>
-  </si>
-  <si>
-    <t>RC-21</t>
-  </si>
-  <si>
-    <t>X00177V42T</t>
-  </si>
-  <si>
-    <t>RC-22</t>
-  </si>
-  <si>
-    <t>X001DNSXKD</t>
-  </si>
-  <si>
-    <t>RC-23</t>
-  </si>
-  <si>
-    <t>X001DNSN67</t>
-  </si>
-  <si>
-    <t>RC-27</t>
-  </si>
-  <si>
-    <t>X001DNSI67</t>
-  </si>
-  <si>
-    <t>RC-28</t>
-  </si>
-  <si>
-    <t>X001DNP11H</t>
-  </si>
-  <si>
-    <t>RC-31</t>
-  </si>
-  <si>
-    <t>X001DNSXK3</t>
-  </si>
-  <si>
-    <t>RC-32</t>
-  </si>
-  <si>
-    <t>X001DNSW31</t>
-  </si>
-  <si>
-    <t>RC-33</t>
-  </si>
-  <si>
-    <t>X001DNP1C1</t>
-  </si>
-  <si>
-    <t>RC-34</t>
-  </si>
-  <si>
-    <t>X001DNT1H7</t>
-  </si>
-  <si>
-    <t>NRC-41</t>
-  </si>
-  <si>
-    <t>NRC-43</t>
-  </si>
-  <si>
-    <t>X001GQHV19</t>
-  </si>
-  <si>
-    <t>RC-45</t>
-  </si>
-  <si>
-    <t>X001DTZDIR</t>
-  </si>
-  <si>
-    <t>RC-47</t>
-  </si>
-  <si>
-    <t>X001E3MQ23</t>
-  </si>
-  <si>
-    <t>RC-48</t>
-  </si>
-  <si>
-    <t>X001DOG9WL</t>
-  </si>
-  <si>
-    <t>RC-15</t>
-  </si>
-  <si>
-    <t>X001CPSMEJ</t>
-  </si>
-  <si>
-    <t>GBC-LIZ-A178</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+  <si>
+    <t>C-0000-S</t>
+  </si>
+  <si>
+    <t>C0000S</t>
+  </si>
+  <si>
+    <t>C-0000-M</t>
+  </si>
+  <si>
+    <t>C0000M</t>
+  </si>
+  <si>
+    <t>C-0000-L</t>
+  </si>
+  <si>
+    <t>C0000L</t>
+  </si>
+  <si>
+    <t>C-0000-XL</t>
+  </si>
+  <si>
+    <t>C0000XL</t>
+  </si>
+  <si>
+    <t>C-0000-2XL</t>
+  </si>
+  <si>
+    <t>C00002XL</t>
+  </si>
+  <si>
+    <t>C-0000-3XL</t>
+  </si>
+  <si>
+    <t>C00003XL</t>
+  </si>
+  <si>
+    <t>C-0000-4XL</t>
+  </si>
+  <si>
+    <t>C00004XL</t>
+  </si>
+  <si>
+    <t>C-0000-5XL</t>
+  </si>
+  <si>
+    <t>C00005XL</t>
+  </si>
+  <si>
+    <t>C-0000-6XL</t>
+  </si>
+  <si>
+    <t>C00006XL</t>
+  </si>
+  <si>
+    <t>C-9991-S</t>
+  </si>
+  <si>
+    <t>C9991S</t>
+  </si>
+  <si>
+    <t>C-9991-M</t>
+  </si>
+  <si>
+    <t>C9991M</t>
+  </si>
+  <si>
+    <t>C-9991-L</t>
+  </si>
+  <si>
+    <t>C9991L</t>
+  </si>
+  <si>
+    <t>C-9991-XL</t>
+  </si>
+  <si>
+    <t>C9991XL</t>
+  </si>
+  <si>
+    <t>C-9991-2XL</t>
+  </si>
+  <si>
+    <t>C99912XL</t>
+  </si>
+  <si>
+    <t>C-9991-3XL</t>
+  </si>
+  <si>
+    <t>C99913XL</t>
+  </si>
+  <si>
+    <t>C-9991-4XL</t>
+  </si>
+  <si>
+    <t>C99914XL</t>
+  </si>
+  <si>
+    <t>C-9991-5XL</t>
+  </si>
+  <si>
+    <t>C99915XL</t>
+  </si>
+  <si>
+    <t>C-9991-6XL</t>
+  </si>
+  <si>
+    <t>C99916XL</t>
+  </si>
+  <si>
+    <t>C-8881-S</t>
+  </si>
+  <si>
+    <t>C8881S</t>
+  </si>
+  <si>
+    <t>C-8881-2XL</t>
+  </si>
+  <si>
+    <t>C88812XL</t>
+  </si>
+  <si>
+    <t>C-8881-4XL</t>
+  </si>
+  <si>
+    <t>C88814XL</t>
+  </si>
+  <si>
+    <t>C-8881-5XL</t>
+  </si>
+  <si>
+    <t>C88815XL</t>
+  </si>
+  <si>
+    <t>C-8881-6XL</t>
+  </si>
+  <si>
+    <t>C88816XL</t>
+  </si>
+  <si>
+    <t>C-8882-M</t>
+  </si>
+  <si>
+    <t>C8882M</t>
+  </si>
+  <si>
+    <t>C-8882-5XL</t>
+  </si>
+  <si>
+    <t>C88825XL</t>
+  </si>
+  <si>
+    <t>C-8882-3XL</t>
+  </si>
+  <si>
+    <t>C88823XL</t>
+  </si>
+  <si>
+    <t>C-8884-XL</t>
+  </si>
+  <si>
+    <t>C8884XL</t>
+  </si>
+  <si>
+    <t>C-8884-2XL</t>
+  </si>
+  <si>
+    <t>C88842XL</t>
+  </si>
+  <si>
+    <t>C-8884-3XL</t>
+  </si>
+  <si>
+    <t>C88843XL</t>
+  </si>
+  <si>
+    <t>C-8884-4XL</t>
+  </si>
+  <si>
+    <t>C88844XL</t>
+  </si>
+  <si>
+    <t>C-8885-2XL</t>
+  </si>
+  <si>
+    <t>C88852XL</t>
+  </si>
+  <si>
+    <t>C-8885-3XL</t>
+  </si>
+  <si>
+    <t>C88853XL</t>
+  </si>
+  <si>
+    <t>C-7771-S</t>
+  </si>
+  <si>
+    <t>C7771S</t>
+  </si>
+  <si>
+    <t>C-7771-M</t>
+  </si>
+  <si>
+    <t>C7771M</t>
+  </si>
+  <si>
+    <t>C-7771-L</t>
+  </si>
+  <si>
+    <t>C7771L</t>
+  </si>
+  <si>
+    <t>C-7771-XL</t>
+  </si>
+  <si>
+    <t>C7771XL</t>
+  </si>
+  <si>
+    <t>C-7771-2XL</t>
+  </si>
+  <si>
+    <t>C77712XL</t>
+  </si>
+  <si>
+    <t>C-7771-3XL</t>
+  </si>
+  <si>
+    <t>C77713XL</t>
+  </si>
+  <si>
+    <t>C-7772-S</t>
+  </si>
+  <si>
+    <t>C7772S</t>
+  </si>
+  <si>
+    <t>C-7772-M</t>
+  </si>
+  <si>
+    <t>C7772M</t>
+  </si>
+  <si>
+    <t>C-7772-L</t>
+  </si>
+  <si>
+    <t>C7772L</t>
+  </si>
+  <si>
+    <t>C-7772-XL</t>
+  </si>
+  <si>
+    <t>C7772XL</t>
+  </si>
+  <si>
+    <t>C-7773-M</t>
+  </si>
+  <si>
+    <t>C7773M</t>
+  </si>
+  <si>
+    <t>C-7773-L</t>
+  </si>
+  <si>
+    <t>C7773L</t>
+  </si>
+  <si>
+    <t>C-7773-XL</t>
+  </si>
+  <si>
+    <t>C7773XL</t>
+  </si>
+  <si>
+    <t>C-7774-S</t>
+  </si>
+  <si>
+    <t>C7774S</t>
+  </si>
+  <si>
+    <t>C-7774-M</t>
+  </si>
+  <si>
+    <t>C7774M</t>
+  </si>
+  <si>
+    <t>C-7774-L</t>
+  </si>
+  <si>
+    <t>C7774L</t>
+  </si>
+  <si>
+    <t>C-7774-XL</t>
+  </si>
+  <si>
+    <t>C7774XL</t>
+  </si>
+  <si>
+    <t>C-6666-5XL</t>
+  </si>
+  <si>
+    <t>C66665XL</t>
+  </si>
+  <si>
+    <t>C-6666-XL</t>
+  </si>
+  <si>
+    <t>C6666XL</t>
+  </si>
+  <si>
+    <t>C-6667-5XL</t>
+  </si>
+  <si>
+    <t>C66675XL</t>
+  </si>
+  <si>
+    <t>C-6667-4XL</t>
+  </si>
+  <si>
+    <t>C66674XL</t>
+  </si>
+  <si>
+    <t>C-6667-6XL</t>
+  </si>
+  <si>
+    <t>C66676XL</t>
+  </si>
+  <si>
+    <t>C-9843-S</t>
+  </si>
+  <si>
+    <t>C9843S</t>
+  </si>
+  <si>
+    <t>C-9843-M</t>
+  </si>
+  <si>
+    <t>C9843M</t>
+  </si>
+  <si>
+    <t>C-9843-L</t>
+  </si>
+  <si>
+    <t>C9843L</t>
+  </si>
+  <si>
+    <t>C-9843-XL</t>
+  </si>
+  <si>
+    <t>C9843XL</t>
+  </si>
+  <si>
+    <t>C-9843-2XL</t>
+  </si>
+  <si>
+    <t>C98432XL</t>
+  </si>
+  <si>
+    <t>C-1025-S</t>
+  </si>
+  <si>
+    <t>C1025S</t>
+  </si>
+  <si>
+    <t>C-1025-XL</t>
+  </si>
+  <si>
+    <t>C1025XL</t>
+  </si>
+  <si>
+    <t>C-1025-2XL</t>
+  </si>
+  <si>
+    <t>C10252XL</t>
+  </si>
+  <si>
+    <t>C-1025-3XL</t>
+  </si>
+  <si>
+    <t>C10253XL</t>
+  </si>
+  <si>
+    <t>C-1025-4XL</t>
+  </si>
+  <si>
+    <t>C10254XL</t>
+  </si>
+  <si>
+    <t>C-1025-5XL</t>
+  </si>
+  <si>
+    <t>C10255XL</t>
+  </si>
+  <si>
+    <t>C-1025-6XL</t>
+  </si>
+  <si>
+    <t>C10256XL</t>
+  </si>
+  <si>
+    <t>C-5551-S</t>
+  </si>
+  <si>
+    <t>C5551S</t>
+  </si>
+  <si>
+    <t>C-5552-S</t>
+  </si>
+  <si>
+    <t>C5552S</t>
+  </si>
+  <si>
+    <t>C-5552-M</t>
+  </si>
+  <si>
+    <t>C5552M</t>
+  </si>
+  <si>
+    <t>C-5551-L</t>
+  </si>
+  <si>
+    <t>C5551L</t>
+  </si>
+  <si>
+    <t>C-5552-L</t>
+  </si>
+  <si>
+    <t>C5552L</t>
+  </si>
+  <si>
+    <t>C-5552-XL</t>
+  </si>
+  <si>
+    <t>C5552XL</t>
+  </si>
+  <si>
+    <t>C-5551-2XL</t>
+  </si>
+  <si>
+    <t>C55512XL</t>
+  </si>
+  <si>
+    <t>C-5552-2XL</t>
+  </si>
+  <si>
+    <t>C55522XL</t>
+  </si>
+  <si>
+    <t>C-5552-3XL</t>
+  </si>
+  <si>
+    <t>C55523XL</t>
+  </si>
+  <si>
+    <t>WUCFJ0088809</t>
+  </si>
+  <si>
+    <t>WU-CFJ008-8809</t>
+  </si>
+  <si>
+    <t>txdqizhihang0001</t>
+  </si>
+  <si>
+    <t>TXD002-W-0</t>
+  </si>
+  <si>
+    <t>TXD002-W1-Grey</t>
+  </si>
+  <si>
+    <t>TXD002-W-5</t>
+  </si>
+  <si>
+    <t>CFJ-1-BLACK</t>
+  </si>
+  <si>
+    <t>CFJ-1-Black</t>
+  </si>
+  <si>
+    <t>CFJ-1</t>
+  </si>
+  <si>
+    <t>CFJ-55-Black</t>
+  </si>
+  <si>
+    <t>TXD002-W-2</t>
   </si>
 </sst>
 </file>
@@ -515,7 +836,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,318 +844,1084 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
         <v>53</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" t="s">
+        <v>159</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88"/>
+      <c r="D88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>152</v>
+      </c>
+      <c r="B90" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91"/>
+      <c r="D91" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
